--- a/biology/Zoologie/Collection_Ouellet-Robert/Collection_Ouellet-Robert.xlsx
+++ b/biology/Zoologie/Collection_Ouellet-Robert/Collection_Ouellet-Robert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection Ouellet-Robert, abrégée QMOR[1], est une collection entomologique de l'Université de Montréal et l'une des plus importantes collections du Canada avec 1,5 million de spécimens en 2019[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection Ouellet-Robert, abrégée QMOR, est une collection entomologique de l'Université de Montréal et l'une des plus importantes collections du Canada avec 1,5 million de spécimens en 2019.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au printemps 1963, le frère Adrien Robert (d)  accepte avec enthousiasme la nomination au poste de directeur de la Station de biologie des Laurentides[3]. La même année, le Ministère du Tourisme, de la Chasse et de la Pêche fait paraître son ouvrage intitulé Les libellules du Québec (d) [3]. Selon Leroux 1964, son rêve le plus cher était de mettre en exécution un programme d’été pour des études écologiques à la station[4]. Malheureusement, la maladie se déclare en mai 1964 et il décède la même année, et ce, après n'avoir eu l'occasion de passer qu'un seul été à la station[3].
-Suite au décès du frère Robert, son assistante Monique Coulloudon (d)  s'est efforcé de préserver sa collection entomologique dans les locaux de l'Université de Montréal. Cela fera d'elle la première coordonnatrice de la collection, poste qu'elle occupera de 1960 à 1989[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au printemps 1963, le frère Adrien Robert (d)  accepte avec enthousiasme la nomination au poste de directeur de la Station de biologie des Laurentides. La même année, le Ministère du Tourisme, de la Chasse et de la Pêche fait paraître son ouvrage intitulé Les libellules du Québec (d) . Selon Leroux 1964, son rêve le plus cher était de mettre en exécution un programme d’été pour des études écologiques à la station. Malheureusement, la maladie se déclare en mai 1964 et il décède la même année, et ce, après n'avoir eu l'occasion de passer qu'un seul été à la station.
+Suite au décès du frère Robert, son assistante Monique Coulloudon (d)  s'est efforcé de préserver sa collection entomologique dans les locaux de l'Université de Montréal. Cela fera d'elle la première coordonnatrice de la collection, poste qu'elle occupera de 1960 à 1989.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Savard, M., &amp; Mochon, A., « L’aeschne majestueuse, une libellule en situation précaire au Québec », Le Naturaliste Canadien, vol. 138, no 2,‎ 2014, p. 8-15
 Favret, C., Normandin, É., &amp; Cloutier, L., « The Ouellet-Robert Entomological Collection: new electronic resources and perspectives », The Canadian Entomologist, vol. 151, no 4,‎ 2019, p. 423-431
